--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="112">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aug2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>neptune-scan.avnet.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,53 @@
   </si>
   <si>
     <t>nov2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control-M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avnet100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDP to cis2026vmts, could see jobs for camaro1, calais1 and chicago1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avf93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avg93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avj93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avk93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avh93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avm93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avu93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avl93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avs93db.avnet.com)))"</t>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=mars-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avp93db.avnet.com)))"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +500,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,6 +591,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +900,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +937,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +980,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,21 +1130,21 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1177,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>2</v>
@@ -1143,16 +1188,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>57</v>
@@ -1197,36 +1242,36 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1238,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,41 +1294,49 @@
     <col min="1" max="1" width="20.5" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1357,7 +1410,149 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1369,7 +1564,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,16 +1634,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1658,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1765,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1802,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1858,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1872,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1965,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1979,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,7 +2072,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1890,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2207,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2222,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2329,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2366,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,13 +2458,13 @@
         <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,13 +2472,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="PIM" sheetId="12" r:id="rId12"/>
     <sheet name="Misc" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,73 @@
   </si>
   <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=mars-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avp93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  WCM: http://diexp-dev2.avnet.com/wps/portal/ema</t>
+  </si>
+  <si>
+    <t>Dev3: http://diexp-dev3.avnet.com/webapp/wcs/stores/servlet/en/asia</t>
+  </si>
+  <si>
+    <t>Test3: http://diexp-test3.avnet.com/webapp/wcs/stores/servlet/en/emea</t>
+  </si>
+  <si>
+    <t>Test4: http://diexp-test4.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
+  </si>
+  <si>
+    <t>   WCM:  http://diexp-uat.avnet.com/wps/portal/ema</t>
+  </si>
+  <si>
+    <r>
+      <t>UAT2:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> http://diexp-uat2.avnet.com/webapp/wcs/stores/servlet/en/asia</t>
+    </r>
+  </si>
+  <si>
+    <t>  WCM: https://diexp-uat2.avnet.com/wps/portal/asia</t>
+  </si>
+  <si>
+    <t>Dev2: http://diexp-dev2.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akamai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick.liu@avnet.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://control.akaimai.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2: http://diexp-qa-auth.avnet.com/webapp/wcs/stores/servlet/en/asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +571,29 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -568,10 +658,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,10 +682,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +1058,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +1102,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,7 +1167,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,6 +1262,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1283,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1447,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1411,151 +1527,286 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
+  <mergeCells count="15">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" display="http://diexp-dev2.avnet.com/webapp/wcs/stores/servlet/en/ema"/>
+    <hyperlink ref="A52" r:id="rId2" display="https://diexp-uat2.avnet.com/wps/portal/asia"/>
+    <hyperlink ref="A51" r:id="rId3" display="http://diexp-uat2.avnet.com/webapp/wcs/stores/servlet/en/asia"/>
+    <hyperlink ref="A49" r:id="rId4" display="http://diexp-uat.avnet.com/wps/portal/ema"/>
+    <hyperlink ref="A48" r:id="rId5" display="http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema"/>
+    <hyperlink ref="A46" r:id="rId6" display="http://diexp-test4.avnet.com/webapp/wcs/stores/servlet/en/ema"/>
+    <hyperlink ref="A44" r:id="rId7" display="http://diexp-test3.avnet.com/webapp/wcs/stores/servlet/en/emea"/>
+    <hyperlink ref="A42" r:id="rId8" display="http://diexp-qa-auth.avnet.com/webapp/wcs/stores/servlet/en/asia"/>
+    <hyperlink ref="A40" r:id="rId9" display="http://diexp-dev3.avnet.com/webapp/wcs/stores/servlet/en/asia"/>
+    <hyperlink ref="A38" r:id="rId10" display="http://diexp-dev2.avnet.com/wps/portal/ema"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="D4" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1564,7 +1815,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +2016,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,7 +2337,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2374,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,7 +2388,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,13 @@
   </si>
   <si>
     <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
+  </si>
+  <si>
+    <t>dec2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,8 +696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +704,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1006,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1391,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,17 +1534,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1551,30 +1558,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1588,56 +1595,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1651,59 +1658,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -1717,23 +1724,23 @@
       <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -1747,12 +1754,12 @@
       <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -1772,8 +1779,18 @@
         <v>118</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
@@ -1784,11 +1801,6 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2122,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,7 +2186,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,7 +2200,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
+  </si>
+  <si>
+    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dec2016nick</t>
@@ -696,6 +700,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,8 +710,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1534,17 +1538,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1558,30 +1562,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1595,56 +1599,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1658,59 +1662,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -1724,23 +1728,23 @@
       <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -1754,12 +1758,12 @@
       <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -1786,11 +1790,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
@@ -1801,6 +1800,11 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2134,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2484,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,14 +528,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
-  </si>
-  <si>
-    <t>dec2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,16 +705,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1402,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,17 +1543,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1562,30 +1567,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1599,56 +1604,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1662,59 +1667,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -1728,23 +1733,23 @@
       <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -1758,38 +1763,52 @@
       <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
@@ -1800,11 +1819,6 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2190,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2297,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,7 +2311,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,7 +2325,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2526,7 +2540,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2259,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2502,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2562,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,22 @@
   </si>
   <si>
     <t>jan2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp.avnet.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afV9unC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -713,6 +729,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1125,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1278,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1349,24 @@
         <v>78</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1417,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,17 +1582,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1575,30 +1606,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1612,56 +1643,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1675,59 +1706,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
@@ -1741,23 +1772,23 @@
       <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -1771,12 +1802,12 @@
       <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -1787,12 +1818,12 @@
       <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
@@ -2510,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nov2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Control-M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +419,6 @@
   </si>
   <si>
     <t>RDP to cis2026vmts, could see jobs for camaro1, calais1 and chicago1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,6 +557,14 @@
   </si>
   <si>
     <t>jan2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feb2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feb2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1128,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1278,7 +1278,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,13 +1351,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+      <selection activeCell="A21" sqref="A21:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,30 +1489,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="17">
         <v>907729</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -1827,17 +1827,17 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2071,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2085,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2136,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2192,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2243,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2285,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2299,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2392,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2686,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2784,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,5 +2804,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="136">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,15 +556,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jan2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>feb2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>feb2017nick</t>
+    <t>mar2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1081,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1095,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1124,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1142,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1917,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,7 +1931,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1959,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2188,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,7 +2295,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2388,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2523,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2631,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2682,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2780,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,10 @@
   </si>
   <si>
     <t>mar2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feb2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2294,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2336,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2364,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,9 +1790,12 @@
       <c r="A45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="23" t="s">
         <v>113</v>
       </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -1837,7 +1840,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A23:I23"/>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,12 +457,6 @@
   </si>
   <si>
     <t>Dev3: http://diexp-dev3.avnet.com/webapp/wcs/stores/servlet/en/asia</t>
-  </si>
-  <si>
-    <t>Test3: http://diexp-test3.avnet.com/webapp/wcs/stores/servlet/en/emea</t>
-  </si>
-  <si>
-    <t>Test4: http://diexp-test4.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
   </si>
   <si>
     <t>   WCM:  http://diexp-uat.avnet.com/wps/portal/ema</t>
@@ -508,59 +502,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nov2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jan2016nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp.avnet.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afV9unC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feb2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mar2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP TEST </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以发邮件到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Identity Service GIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来改密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Test2: http://diexp-qa-auth.avnet.com/webapp/wcs/stores/servlet/en/asia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nov2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jan2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jan2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp.avnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upstream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afV9unC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feb2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mar2017nick</t>
+    <t>Test3: http://diexp-test3.avnet.com/webapp/wcs/stores/servlet/en/emea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4: http://diexp-test4.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +672,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1081,7 +1130,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1323,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1396,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,16 +1548,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,7 +1791,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -1769,7 +1818,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1780,7 +1829,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1791,7 +1840,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -1802,7 +1851,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -1810,7 +1859,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,7 +1867,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -1826,21 +1875,46 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>128</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A21:I21"/>
@@ -1857,7 +1931,6 @@
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1921,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +2036,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2144,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2209,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2316,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2358,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2372,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2465,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2600,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2652,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2680,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2708,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2759,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2857,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="138">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
   </si>
   <si>
     <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1130,7 +1126,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1140,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,7 +1169,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1319,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +1392,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
@@ -1818,7 +1814,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1829,7 +1825,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -1840,7 +1836,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -1880,26 +1876,26 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,6 +1910,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A51:D51"/>
@@ -1930,7 +1927,6 @@
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1994,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,7 +2032,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2140,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2247,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2264,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2298,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,7 +2312,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,7 +2326,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2358,7 +2354,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2461,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2596,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2648,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,7 +2662,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,7 +2704,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2755,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,7 +2853,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -763,24 +763,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,13 +1546,13 @@
       <c r="A4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1623,17 +1623,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1647,30 +1647,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1684,56 +1684,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1747,142 +1747,175 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>111</v>
       </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="25" t="s">
         <v>112</v>
       </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>114</v>
       </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="29" t="s">
         <v>123</v>
       </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="30" t="s">
         <v>124</v>
       </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -1909,7 +1942,11 @@
       <c r="C70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
@@ -1926,7 +1963,6 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2260,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,10 @@
   </si>
   <si>
     <t>Test4: http://diexp-test4.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feb2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,18 +772,18 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
@@ -1623,17 +1627,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1647,30 +1651,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1684,56 +1688,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1747,175 +1751,175 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -1943,6 +1947,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
@@ -1951,18 +1963,10 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2190,7 +2194,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2231,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="136">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,23 +510,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dec2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jan2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jan2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1092,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1118,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,7 +1161,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +1384,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1815,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -1841,7 +1829,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1855,7 +1843,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1907,7 +1895,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -1915,7 +1903,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -1923,16 +1911,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,15 +1935,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -1967,6 +1946,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2030,7 +2018,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,7 +2032,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2168,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2219,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,7 +2275,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2326,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,7 +2340,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2354,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,7 +2382,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2489,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2624,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2650,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,7 +2690,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,7 +2704,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,7 +2732,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2783,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,7 +2881,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="PricingTool" sheetId="11" r:id="rId11"/>
     <sheet name="PIM" sheetId="12" r:id="rId12"/>
     <sheet name="Misc" sheetId="13" r:id="rId13"/>
+    <sheet name="WCM" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="141">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +404,6 @@
   </si>
   <si>
     <t>nov2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,6 +588,30 @@
   </si>
   <si>
     <t>feb2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aVn3t001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mar2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celery1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chestnut1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,8 +785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +792,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1118,7 +1139,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1161,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1197,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1332,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,13 +1405,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1481,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,30 +1543,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="17">
         <v>907729</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,17 +1636,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="A21" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1639,30 +1660,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1676,56 +1697,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1739,59 +1760,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1801,7 +1822,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1814,12 +1835,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1828,12 +1849,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1842,12 +1863,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1856,19 +1877,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,49 +1899,49 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,6 +1956,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -1946,15 +1976,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1973,6 +1994,70 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2018,7 +2103,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2032,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2160,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2197,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,7 +2253,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2219,7 +2304,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2411,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2340,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2354,7 +2439,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2382,7 +2467,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2481,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2518,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,7 +2532,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,7 +2546,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,7 +2574,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2709,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2638,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2761,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,7 +2775,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2789,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2868,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,7 +2966,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -785,6 +785,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -792,8 +794,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,17 +1636,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1660,30 +1660,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1697,56 +1697,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1760,59 +1760,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1835,12 +1835,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1849,12 +1849,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1863,12 +1863,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1877,19 +1877,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,12 +1899,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1915,20 +1915,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -1956,15 +1956,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -1976,6 +1967,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="150">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,10 +500,6 @@
   </si>
   <si>
     <t>nov2016nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -612,6 +608,44 @@
   </si>
   <si>
     <t>chestnut1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebMethod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebMethod stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wmx-mws-test:8585</t>
+  </si>
+  <si>
+    <t>http://wmx-mws-stage:8585</t>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebMethod prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wmx-mws-prod.avnet.com:8585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +826,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1101,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1173,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1182,7 +1216,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1366,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,13 +1439,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1502,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,22 +1610,46 @@
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -1636,17 +1694,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1660,30 +1718,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1697,56 +1755,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1760,59 +1818,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1835,12 +1893,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1849,12 +1907,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1863,12 +1921,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1877,19 +1935,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,12 +1957,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1915,33 +1973,33 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,6 +2014,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -1967,15 +2034,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2028,30 +2086,30 @@
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2203,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2255,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,7 +2311,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2418,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2469,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2483,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,7 +2497,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,7 +2525,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +2590,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,7 +2604,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2632,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2819,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,7 +2833,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,7 +2847,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,7 +3024,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,12 +648,19 @@
     <t>UAT1: http://diexp-uat.avnet.com/webapp/wcs/stores/servlet/en/ema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was855_wp/profiles/wp_profile/logs/WebSphere_Portal/SystemOut.log</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +730,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -762,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -785,12 +798,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -819,6 +841,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -826,8 +850,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1536,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
@@ -1694,17 +1718,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1718,30 +1742,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1755,56 +1779,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1818,59 +1842,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1893,12 +1917,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1907,12 +1931,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1921,12 +1945,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1935,19 +1959,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,12 +1981,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1973,20 +1997,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2014,15 +2038,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2034,6 +2049,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2057,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2068,9 +2092,10 @@
     <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2083,8 +2108,11 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
@@ -2097,8 +2125,11 @@
       <c r="D2" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>139</v>
       </c>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,8 +850,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1718,17 +1718,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1742,30 +1742,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1779,56 +1779,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1842,43 +1842,43 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -2038,6 +2038,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2049,15 +2058,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2083,7 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2108,7 +2108,7 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="24" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       <c r="D2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2676,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="151">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,10 +584,6 @@
   </si>
   <si>
     <t>feb2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aVn3t001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,6 +839,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,8 +848,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1386,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,44 +1631,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,17 +1714,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1742,30 +1738,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1779,56 +1775,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1842,59 +1838,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1917,12 +1913,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1931,12 +1927,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1945,12 +1941,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1959,19 +1955,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,12 +1977,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1997,20 +1993,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2038,15 +2034,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2058,6 +2045,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2109,32 +2105,32 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
@@ -2676,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2916,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,10 @@
   </si>
   <si>
     <t>/opt/ibm/was855_wp/profiles/wp_profile/logs/WebSphere_Portal/SystemOut.log</t>
+  </si>
+  <si>
+    <t>apr2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -839,8 +843,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +850,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,7 +1255,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1348,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1362,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,17 +1718,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1738,30 +1742,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1775,56 +1779,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1838,59 +1842,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1913,12 +1917,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1927,12 +1931,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1941,12 +1945,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1955,19 +1959,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,12 +1981,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1993,20 +1997,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2034,6 +2038,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2045,15 +2058,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,10 +504,6 @@
   </si>
   <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,6 +646,14 @@
   </si>
   <si>
     <t>/opt/ibm/was855_wp/profiles/wp_profile/logs/WebSphere_Portal/SystemOut.log</t>
+  </si>
+  <si>
+    <t>apr2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/emdi_search_cell/Search_emdi.ear/lib/avnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>apr2017nick</t>
@@ -843,6 +847,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,8 +856,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,7 +1201,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1240,7 +1244,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1259,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1296,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1338,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,7 +1352,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1366,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,7 +1394,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,13 +1467,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1565,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,44 +1639,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,17 +1722,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1742,30 +1746,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1779,56 +1783,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1842,59 +1846,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1917,12 +1921,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1931,12 +1935,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1945,12 +1949,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1959,19 +1963,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,12 +1985,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1997,33 +2001,33 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2038,15 +2042,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2058,6 +2053,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2109,38 +2113,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2196,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,7 +2210,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,7 +2238,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,7 +2346,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,7 +2453,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2504,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2518,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2532,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2560,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2574,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2611,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,7 +2625,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2639,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,7 +2667,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2802,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2854,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2864,7 +2868,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,7 +2882,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,7 +2910,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2961,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,7 +3059,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,10 +496,6 @@
   </si>
   <si>
     <t>http://control.akaimai.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov2016nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>feb2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mar2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,6 +649,10 @@
   </si>
   <si>
     <t>apr2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,8 +843,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +850,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1201,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,7 +1211,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1244,7 +1240,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1292,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,7 +1348,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1362,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1390,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1463,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1639,44 +1635,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,17 +1718,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1746,30 +1742,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1783,56 +1779,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1846,59 +1842,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1921,12 +1917,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1935,12 +1931,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="A44" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1949,12 +1945,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="A46" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1963,19 +1959,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,12 +1981,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2001,33 +1997,33 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="A59" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,6 +2038,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2053,15 +2058,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2113,38 +2109,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2192,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,7 +2206,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2286,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,7 +2342,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2359,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,7 +2407,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,7 +2449,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2500,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,7 +2514,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +2528,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2556,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,7 +2621,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,7 +2635,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2663,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2798,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +2850,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,7 +2864,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,7 +2906,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2957,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,7 +3055,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="157">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,6 +649,26 @@
   </si>
   <si>
     <t>apr2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jun2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jun2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,6 +863,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,8 +872,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,7 +1180,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1260,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1275,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,17 +1738,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1742,30 +1762,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1779,56 +1799,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1842,59 +1862,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1917,12 +1937,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1931,12 +1951,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1945,12 +1965,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1959,19 +1979,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,12 +2001,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -1997,20 +2017,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2038,15 +2058,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2058,6 +2069,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2154,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2269,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2362,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2355,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2469,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2483,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2520,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2576,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2590,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2655,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,7 +2683,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2697,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2833,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +2926,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2940,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,7 +3075,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -863,8 +863,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +870,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1738,17 +1738,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1762,30 +1762,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1799,56 +1799,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1862,59 +1862,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1937,12 +1937,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1951,12 +1951,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1965,12 +1965,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1979,19 +1979,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,12 +2001,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2017,20 +2017,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2058,6 +2058,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2069,15 +2078,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2175,7 +2175,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2212,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>may2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jul2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1279,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2696,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2738,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2752,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="157">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +512,6 @@
   </si>
   <si>
     <t>afV9unC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feb2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -660,19 +656,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>jun2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jun2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>may2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jun2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jun2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>may2017nick</t>
+    <t>jul2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1184,7 +1180,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1231,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,7 +1260,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1312,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1340,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1354,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,7 +1368,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,44 +1655,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,7 +1938,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -1956,7 +1952,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1970,7 +1966,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1984,7 +1980,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -2030,7 +2026,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -2038,16 +2034,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,38 +2129,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2175,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2212,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,7 +2226,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2306,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2362,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2413,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,7 +2427,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,7 +2441,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2473,7 +2469,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2483,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2520,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,7 +2576,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2655,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,7 +2683,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2738,7 +2734,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,7 +2748,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2870,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,7 +2884,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2898,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2926,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2943,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,7 +2977,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +2991,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3005,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +3075,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>may2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jul2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,6 +867,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -870,8 +876,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1580,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
@@ -1738,17 +1742,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1762,30 +1766,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1799,56 +1803,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1862,59 +1866,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1937,12 +1941,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1951,12 +1955,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1965,12 +1969,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1979,19 +1983,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,12 +2005,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2017,20 +2021,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2058,15 +2062,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2078,6 +2073,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2269,7 +2273,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2310,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,7 +2380,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2417,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,7 +2594,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2631,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,7 +2700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2939,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,33 +417,6 @@
   <si>
     <t>RDP to cis2026vmts, could see jobs for camaro1, calais1 and chicago1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avf93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avg93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avj93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avk93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avh93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avm93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avu93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avl93db.avnet.com)))"</t>
-  </si>
-  <si>
-    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avs93db.avnet.com)))"</t>
   </si>
   <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=mars-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avp93db.avnet.com)))"</t>
@@ -652,22 +625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>may2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jun2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jun2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>may2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jul2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,7 +633,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jul2017nick</t>
+    <t>WebMethod dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tivoli01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wmx-mws-dev:8585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avf93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aug2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avg93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aug2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avj93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avk93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>august2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avh93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>august2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avm93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avu93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avl93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avs93db.avnet.com)))"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1201,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1252,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,7 +1281,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1375,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1403,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,13 +1504,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,16 +1656,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,51 +1676,59 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="17">
+        <v>907729</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
@@ -1743,7 +1768,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1767,7 +1792,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -1780,7 +1805,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -1804,7 +1829,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -1817,7 +1842,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -1830,7 +1855,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -1843,7 +1868,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -1867,7 +1892,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -1880,7 +1905,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1893,7 +1918,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -1906,7 +1931,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1914,7 +1939,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -1928,7 +1953,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1942,7 +1967,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -1956,7 +1981,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -1970,7 +1995,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -1984,7 +2009,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -1992,7 +2017,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -2006,7 +2031,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -2014,7 +2039,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2022,7 +2047,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -2030,7 +2055,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -2038,16 +2063,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,9 +2122,10 @@
     <hyperlink ref="A38" r:id="rId10" display="http://diexp-dev2.avnet.com/wps/portal/ema"/>
     <hyperlink ref="B4" r:id="rId11"/>
     <hyperlink ref="D4" r:id="rId12"/>
+    <hyperlink ref="D9" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -2133,38 +2159,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2205,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2242,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,7 +2256,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,7 +2299,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2336,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2406,221 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,151 +2648,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,123 +2704,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2700,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2764,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,7 +2848,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,7 +2914,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2928,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2970,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +3021,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3035,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="161">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,6 +694,10 @@
   </si>
   <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avs93db.avnet.com)))"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +888,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +895,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1295,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1767,17 +1771,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1791,30 +1795,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1828,56 +1832,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1891,59 +1895,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1966,12 +1970,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1980,12 +1984,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1994,12 +1998,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2008,19 +2012,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,12 +2034,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2046,20 +2050,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2087,6 +2091,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2098,15 +2111,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2862,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,7 +2904,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,10 +469,6 @@
   </si>
   <si>
     <t>http://control.akaimai.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,6 +694,18 @@
   </si>
   <si>
     <t>sep2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tivoli02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,6 +896,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -895,8 +905,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1242,7 +1250,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1264,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,7 +1293,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,7 +1373,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,7 +1387,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,7 +1401,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,7 +1415,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,7 +1443,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1516,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1605,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,58 +1688,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="17">
         <v>907729</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,9 +1749,15 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="17">
+        <v>913743</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,17 +1785,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1795,30 +1809,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="A23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1832,56 +1846,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="A28" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1895,59 +1909,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1970,12 +1984,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1984,12 +1998,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1998,12 +2012,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2012,19 +2026,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,12 +2048,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2050,33 +2064,33 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,15 +2105,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2111,6 +2116,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2163,38 +2177,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2274,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,7 +2410,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2461,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,7 +2475,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,7 +2489,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,7 +2517,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +2568,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2596,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2624,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2675,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2689,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,7 +2703,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2782,7 +2796,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,7 +2866,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2904,7 +2918,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2946,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,7 +2974,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,7 +3039,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,7 +3053,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,7 +3123,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="165">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,14 @@
   </si>
   <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oct2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oct2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +904,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +911,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1353,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
@@ -1785,17 +1793,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1809,30 +1817,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1846,56 +1854,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1909,59 +1917,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1984,12 +1992,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1998,12 +2006,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2012,12 +2020,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2026,19 +2034,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,12 +2056,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2064,20 +2072,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2105,6 +2113,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2116,15 +2133,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2745,7 +2753,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2790,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,7 +2804,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -904,6 +904,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,8 +913,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1315,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
@@ -1793,17 +1793,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1817,30 +1817,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1854,56 +1854,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1917,59 +1917,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1992,12 +1992,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2006,12 +2006,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2020,12 +2020,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2034,19 +2034,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,12 +2056,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2072,20 +2072,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2113,15 +2113,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2133,6 +2124,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -904,8 +904,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +911,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1793,17 +1793,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1817,30 +1817,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1854,56 +1854,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1917,59 +1917,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1992,12 +1992,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2006,12 +2006,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2020,12 +2020,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2034,19 +2034,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,12 +2056,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2072,20 +2072,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2113,6 +2113,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2124,15 +2133,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2431,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2469,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aug2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avj93db.avnet.com)))"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,18 +661,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>august2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=neptune-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avh93db.avnet.com)))"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>august2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sqlplus "A907729@(DESCRIPTION= (ADDRESS=(PROTOCOL=TCP)(HOST=venus-scan.avnet.com)(PORT=1521)) (CONNECT_DATA=(SERVER=DEDICATED) (SERVICE_NAME=avm93db.avnet.com)))"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,15 +693,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>oct2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oct2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oct2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oct2017nick</t>
+    <t>dec2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +790,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +824,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -904,6 +902,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,8 +911,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1315,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1352,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,7 +1450,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
@@ -1758,13 +1757,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="17">
         <v>913743</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -1793,17 +1792,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1817,30 +1816,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1854,56 +1853,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1917,59 +1916,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="A31" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="A32" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="A33" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1992,12 +1991,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2006,12 +2005,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2020,12 +2019,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2034,19 +2033,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,12 +2055,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2072,20 +2071,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2113,15 +2112,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2133,6 +2123,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2310,7 +2309,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2324,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,16 +2407,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="33" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2431,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2468,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,7 +2524,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2538,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2575,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2631,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2738,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +2752,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2789,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,7 +2803,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,7 +2873,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2888,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2925,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,7 +2981,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3130,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,10 @@
   </si>
   <si>
     <t>dec2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,8 +906,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,7 +914,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,7 +1224,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1261,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1275,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,17 +1796,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1816,30 +1820,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1853,56 +1857,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1916,59 +1920,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1991,12 +1995,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2005,12 +2009,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2019,12 +2023,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2033,19 +2037,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,12 +2059,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2071,20 +2075,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2112,6 +2116,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2123,15 +2136,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2230,7 +2234,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2271,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,16 +2411,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="26" t="s">
         <v>147</v>
       </c>
     </row>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="162">
   <si>
     <t>Server Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,22 +613,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apr2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>may2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jul2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jul2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WebMethod dev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +694,10 @@
   </si>
   <si>
     <t>dec2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2017nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -907,6 +899,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -914,8 +908,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1267,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1304,7 +1296,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1348,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1376,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,7 +1446,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,16 +1733,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="17">
         <v>907729</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +1753,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B11" s="17">
         <v>913743</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -1796,17 +1788,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1820,30 +1812,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="A24" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1857,56 +1849,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1920,59 +1912,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="A31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="A32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="A33" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1995,12 +1987,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2009,12 +2001,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2023,12 +2015,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2037,19 +2029,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,12 +2051,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2075,20 +2067,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="A59" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2116,15 +2108,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2136,6 +2119,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2234,7 +2226,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,7 +2305,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2328,7 +2320,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2427,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,7 +2464,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2520,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2534,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2585,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2648,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,7 +2799,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,7 +3042,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,6 @@
   </si>
   <si>
     <t>nick.liu@avnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qazxsw2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -702,6 +698,10 @@
   </si>
   <si>
     <t>nov2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3edcvfr4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,8 +899,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +906,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1253,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1296,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1348,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,10 +1677,10 @@
         <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,58 +1691,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="17">
         <v>907729</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="17">
         <v>907729</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="17">
         <v>907729</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="17">
         <v>907729</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +1753,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="17">
         <v>913743</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -1788,17 +1788,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1812,30 +1812,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1849,56 +1849,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1912,59 +1912,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1987,12 +1987,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="A42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2001,12 +2001,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2015,12 +2015,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2029,19 +2029,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="A48" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,12 +2051,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2067,33 +2067,33 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="A59" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="A60" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="17">
         <v>907729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,6 +2108,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2119,15 +2128,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2180,38 +2180,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2464,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2678,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -899,6 +899,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,8 +908,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1616,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1788,17 +1788,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1812,30 +1812,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1849,56 +1849,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1912,59 +1912,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1987,12 +1987,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2001,12 +2001,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2015,12 +2015,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2029,19 +2029,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,12 +2051,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2067,20 +2067,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2108,15 +2108,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2128,6 +2119,15 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2990,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="761" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -665,10 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sep2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Admin console</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,23 +681,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dec2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3edcvfr4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec2017nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/opt/ibm/was70/profiles/appsrv/installedApps/adedv270cell/WC_emdi.ear/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dec2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov2017nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3edcvfr4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,8 +899,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +906,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1253,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1296,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1348,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,7 +1677,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>108</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="17">
         <v>913743</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -1788,17 +1788,17 @@
       <c r="D15" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1812,30 +1812,30 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -1849,56 +1849,56 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1912,59 +1912,59 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1987,12 +1987,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2001,12 +2001,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2015,12 +2015,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2029,19 +2029,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,12 +2051,12 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2067,20 +2067,20 @@
       <c r="D52" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="A59" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
@@ -2108,6 +2108,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
@@ -2119,15 +2128,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2263,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2884,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2990,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="144">
   <si>
     <t>Server Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Solr</t>
   </si>
   <si>
-    <t>nov2017nick</t>
-  </si>
-  <si>
     <t>Host Name</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>chicago1</t>
   </si>
   <si>
-    <t>oct2017nick</t>
-  </si>
-  <si>
     <t>chicago2</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
   </si>
   <si>
     <t>calais2</t>
-  </si>
-  <si>
-    <t>jul2017nick</t>
   </si>
   <si>
     <t>calais3</t>
@@ -504,6 +495,9 @@
   </si>
   <si>
     <t>nliu/Jan2018nick</t>
+  </si>
+  <si>
+    <t>feb2018nick</t>
   </si>
 </sst>
 </file>
@@ -570,7 +564,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +607,12 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -651,14 +651,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -690,6 +684,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,58 +1043,58 @@
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="8.75" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,30 +1110,30 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1146,115 +1147,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.625" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>7</v>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,53 +1271,53 @@
       <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>72</v>
+      <c r="A14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1335,36 +1336,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.375" style="5"/>
-    <col min="3" max="1025" width="8.75" style="5"/>
+    <col min="1" max="2" width="19.375" style="1"/>
+    <col min="3" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,14 +1389,14 @@
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>79</v>
+      <c r="A7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1426,54 +1427,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="D2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>84</v>
+      <c r="D3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1486,29 +1487,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="22"/>
-    <col min="2" max="2" width="17.625" style="22"/>
-    <col min="3" max="3" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="22"/>
-    <col min="5" max="1025" width="8.75" style="22"/>
+    <col min="1" max="1" width="20.125" style="18"/>
+    <col min="2" max="2" width="17.625" style="18"/>
+    <col min="3" max="3" width="14.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="18"/>
+    <col min="5" max="1025" width="8.75" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>90</v>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1517,17 +1518,17 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1536,17 +1537,17 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="19">
         <v>907729</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>97</v>
+      <c r="C3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1555,17 +1556,17 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1574,10 +1575,10 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -1585,17 +1586,17 @@
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="19">
         <v>907729</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>104</v>
+      <c r="C6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1604,17 +1605,17 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="A7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="19">
         <v>907729</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1623,17 +1624,17 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="A8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="19">
         <v>907729</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>109</v>
+      <c r="C8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1642,17 +1643,17 @@
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="A9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="19">
         <v>907729</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>111</v>
+      <c r="C9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1661,10 +1662,10 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -1672,16 +1673,16 @@
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="19">
         <v>913743</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="23"/>
+      <c r="C11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="19"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -1689,10 +1690,10 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -1700,10 +1701,10 @@
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -1711,10 +1712,10 @@
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -1722,10 +1723,10 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -1788,167 +1789,167 @@
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -1969,120 +1970,120 @@
       <c r="D36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53"/>
@@ -2121,20 +2122,20 @@
       <c r="D58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61"/>
@@ -2179,65 +2180,65 @@
       <c r="D67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="23">
+      <c r="A68" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="19">
         <v>907729</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>137</v>
+      <c r="C68" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>145</v>
+      <c r="A72" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -2279,51 +2280,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>47</v>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2342,53 +2343,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,30 +2405,30 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2442,72 +2443,72 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="8.75" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,31 +2524,31 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2566,67 +2567,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="16.125" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="16.125" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,30 +2637,30 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2679,67 +2680,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="20.125" style="5"/>
-    <col min="3" max="3" width="8.75" style="5"/>
-    <col min="4" max="4" width="16.125" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="20.125" style="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="16.125" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,30 +2756,30 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2793,72 +2794,72 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,30 +2875,30 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2912,100 +2913,100 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>41</v>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,30 +3022,30 @@
       <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3059,72 +3060,72 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="8.75" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>47</v>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,30 +3141,30 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3178,114 +3179,114 @@
   <dimension ref="A1:AMK12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="5"/>
-    <col min="2" max="2" width="19.375" style="5"/>
-    <col min="3" max="3" width="9.375" style="5"/>
-    <col min="4" max="4" width="12.625" style="5"/>
-    <col min="5" max="1025" width="8.75" style="5"/>
+    <col min="1" max="1" width="25" style="1"/>
+    <col min="2" max="2" width="19.375" style="1"/>
+    <col min="3" max="3" width="9.375" style="1"/>
+    <col min="4" max="4" width="12.625" style="1"/>
+    <col min="5" max="1025" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,45 +3302,45 @@
       <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="142">
   <si>
     <t>Server Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>nliu</t>
   </si>
   <si>
-    <t>dec2017nick</t>
-  </si>
-  <si>
     <t>catalpa1</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>avj93db.avnet.com</t>
-  </si>
-  <si>
-    <t>aug2017nick</t>
   </si>
   <si>
     <t>chama1</t>
@@ -684,13 +678,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,7 +1037,7 @@
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,21 +1074,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,10 +1105,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1125,16 +1119,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1147,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1170,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>5</v>
@@ -1185,12 +1179,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
@@ -1199,12 +1193,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
@@ -1213,49 +1207,49 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,10 +1266,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>2</v>
@@ -1286,30 +1280,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1311,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1342,10 +1336,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -1356,16 +1350,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1384,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1428,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -1445,36 +1439,36 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1487,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,13 +1497,13 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1519,16 +1513,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1538,16 +1532,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="19">
         <v>907729</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1557,16 +1551,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1587,16 +1581,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="19">
         <v>907729</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1606,16 +1600,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="19">
         <v>907729</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1625,16 +1619,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="19">
         <v>907729</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1644,16 +1638,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="19">
         <v>907729</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1674,13 +1668,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="19">
         <v>913743</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11"/>
@@ -1789,17 +1783,17 @@
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1813,30 +1807,30 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="A23" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="A24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
@@ -1850,56 +1844,56 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -1913,43 +1907,43 @@
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -1970,20 +1964,20 @@
       <c r="D36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1993,7 +1987,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2006,12 +2000,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="A42" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2020,12 +2014,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="A44" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2034,12 +2028,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="A46" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2048,19 +2042,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="A48" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,16 +2064,16 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2122,20 +2116,20 @@
       <c r="D58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="A60" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61"/>
@@ -2181,16 +2175,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="19">
         <v>907729</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,40 +2199,40 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -2293,38 +2287,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2337,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2360,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -2375,21 +2369,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,10 +2400,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -2420,16 +2414,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2437,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2480,35 +2474,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,10 +2519,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -2539,17 +2533,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2562,7 +2554,7 @@
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2582,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2599,35 +2591,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,10 +2630,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -2652,16 +2644,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2667,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2695,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2712,35 +2704,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,10 +2749,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -2771,16 +2763,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2786,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +2814,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2831,35 +2823,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,10 +2868,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -2890,16 +2882,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2905,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2933,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -2950,12 +2942,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
@@ -2964,49 +2956,49 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,10 +3015,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>2</v>
@@ -3037,16 +3029,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3052,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3080,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -3097,35 +3089,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,10 +3134,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>2</v>
@@ -3156,16 +3148,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3171,7 @@
   <dimension ref="A1:AMK12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3199,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
@@ -3216,12 +3208,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -3230,12 +3222,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
@@ -3244,49 +3236,49 @@
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>39</v>
+      <c r="D5" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,10 +3295,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2</v>
@@ -3317,30 +3309,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/document/login_dp.xlsx
+++ b/document/login_dp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dev2" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>nick.liu@avnet.com</t>
-  </si>
-  <si>
-    <t>3edcvfr4</t>
   </si>
   <si>
     <t>http://control.akaimai.com</t>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>feb2018nick</t>
+  </si>
+  <si>
+    <t>4rfvbgt5</t>
   </si>
 </sst>
 </file>
@@ -679,12 +679,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,10 +1557,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1581,16 +1581,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="19">
         <v>907729</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="19">
         <v>907729</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="19">
         <v>907729</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="19">
         <v>907729</v>
@@ -1647,7 +1647,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="19">
         <v>913743</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11"/>
@@ -1783,17 +1783,17 @@
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1807,30 +1807,30 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
@@ -1844,56 +1844,56 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -1907,43 +1907,43 @@
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -1964,20 +1964,20 @@
       <c r="D36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -2000,12 +2000,12 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="A42" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -2014,12 +2014,12 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -2028,12 +2028,12 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -2042,19 +2042,19 @@
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,16 +2064,16 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -2116,20 +2116,20 @@
       <c r="D58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61"/>
@@ -2175,16 +2175,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="19">
         <v>907729</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,34 +2205,34 @@
         <v>6</v>
       </c>
       <c r="C72" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -2287,15 +2287,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>6</v>
@@ -2304,15 +2304,15 @@
         <v>43</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2474,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,7 +3318,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
